--- a/Vergleich.xlsx
+++ b/Vergleich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4227BF71-3092-457B-B81E-6FB26F12742F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B56DF2-B0EB-4664-A4E3-E1CE66B57538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="2130" windowWidth="14595" windowHeight="11835" xr2:uid="{7E6E5B4C-7953-43E9-8174-8672B4DAA544}"/>
+    <workbookView xWindow="15645" yWindow="5085" windowWidth="14595" windowHeight="11835" xr2:uid="{7E6E5B4C-7953-43E9-8174-8672B4DAA544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>ADC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20‰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +78,6 @@
   </si>
   <si>
     <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bsp, 1 Gauss - 0.005v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +113,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -152,12 +152,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,11 +197,18 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE2C56-3485-4138-BA42-ED3F2762F5A1}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,23 +532,22 @@
     <col min="1" max="5" width="9" style="5"/>
     <col min="6" max="6" width="8.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="11"/>
-    <col min="8" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
@@ -555,11 +564,8 @@
       <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -573,8 +579,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>1.1860654825734871</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -587,18 +599,14 @@
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="G5" s="11">
-        <f>375/500</f>
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="4">
-        <v>18.184124766486143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>1.1435126063986012</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -611,18 +619,14 @@
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
-        <v>1.083</v>
-      </c>
-      <c r="G6" s="11">
-        <f>389/500</f>
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="H6" s="4">
-        <v>13.407181698504875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>1.1403950061793786</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -635,18 +639,14 @@
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="G7" s="11">
-        <f>376/500</f>
-        <v>0.752</v>
-      </c>
-      <c r="H7" s="4">
-        <v>12.08465075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>1.1426117673525495</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -659,13 +659,19 @@
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>1.1416718079766806</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
@@ -682,16 +688,11 @@
       <c r="G10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -704,15 +705,14 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K11">
-        <f>0.005*0.005</f>
-        <v>2.5000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>1.0890859917902149</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -725,25 +725,14 @@
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="4">
-        <v>1.121</v>
-      </c>
-      <c r="G12" s="11">
-        <f>391/500</f>
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="H12" s="4">
-        <v>15.222422486067181</v>
-      </c>
-      <c r="J12">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K12">
-        <f>0.005*0.01</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>1.0963321599275582</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -756,25 +745,14 @@
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="4">
-        <v>1.083</v>
-      </c>
-      <c r="G13" s="11">
-        <f>389/500</f>
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="H13" s="4">
-        <v>13.407181698504875</v>
-      </c>
-      <c r="J13">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K13">
-        <f>0.005*0.02</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>1.1403950061793786</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -787,25 +765,14 @@
       <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4">
-        <v>1.397</v>
-      </c>
-      <c r="G14" s="11">
-        <f>356/500</f>
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="H14" s="4">
-        <v>27.270414301241402</v>
-      </c>
-      <c r="J14">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="K14">
-        <f>0.005*0.04</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="1">
+        <v>1.2398372612515725</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>8</v>
       </c>
@@ -819,10 +786,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="1">
+        <v>1.452477104588175</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
@@ -839,11 +812,8 @@
       <c r="G17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>9</v>
       </c>
@@ -854,11 +824,17 @@
         <v>0.02</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <v>1.1215538233915359</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.78100000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -871,8 +847,14 @@
       <c r="D19" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <v>1.1273642569625641</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -885,18 +867,14 @@
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4">
-        <v>1.083</v>
-      </c>
-      <c r="G20" s="11">
-        <f>389/500</f>
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="H20" s="4">
-        <v>13.407181698504875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="1">
+        <v>1.1403950061793786</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -909,8 +887,14 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>1.142837257751242</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -921,15 +905,21 @@
         <v>0.02</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.1284279244468176</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>0</v>
@@ -946,20 +936,39 @@
       <c r="G24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>14</v>
+      </c>
+      <c r="B26" s="10">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vergleich.xlsx
+++ b/Vergleich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\Project_github\MTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B56DF2-B0EB-4664-A4E3-E1CE66B57538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B655A-40BC-4CDA-B5E6-4FA81EBF9343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15645" yWindow="5085" windowWidth="14595" windowHeight="11835" xr2:uid="{7E6E5B4C-7953-43E9-8174-8672B4DAA544}"/>
+    <workbookView xWindow="6825" yWindow="3150" windowWidth="14595" windowHeight="11835" xr2:uid="{7E6E5B4C-7953-43E9-8174-8672B4DAA544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sensitivity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,15 +69,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>je 500 mal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1‰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>je 1000 mal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,14 +197,17 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE2C56-3485-4138-BA42-ED3F2762F5A1}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,32 +540,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -576,15 +579,11 @@
         <v>0.02</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="1">
-        <v>1.1860654825734871</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.752</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -597,14 +596,10 @@
         <v>0.02</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.1435126063986012</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0.78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -617,14 +612,10 @@
         <v>0.02</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.1403950061793786</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.77300000000000002</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -637,14 +628,10 @@
         <v>0.02</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.1426117673525495</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0.77700000000000002</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -657,40 +644,36 @@
         <v>0.02</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.1416718079766806</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.77900000000000003</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -703,14 +686,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.0890859917902149</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.78100000000000003</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -723,14 +702,10 @@
         <v>0.01</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.0963321599275582</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.78600000000000003</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -743,14 +718,10 @@
         <v>0.02</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.1403950061793786</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0.77300000000000002</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -763,14 +734,10 @@
         <v>0.04</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.2398372612515725</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0.74399999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -783,34 +750,30 @@
         <v>0.08</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="1">
-        <v>1.452477104588175</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0.56399999999999995</v>
-      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -824,15 +787,11 @@
         <v>0.02</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="1">
-        <v>1.1215538233915359</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0.78100000000000003</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -845,14 +804,10 @@
         <v>0.02</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.1273642569625641</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0.78300000000000003</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -865,14 +820,10 @@
         <v>0.02</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.1403950061793786</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.77300000000000002</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -885,14 +836,10 @@
         <v>0.02</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.142837257751242</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0.78500000000000003</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -905,36 +852,32 @@
         <v>0.02</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.1284279244468176</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0.77</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -948,7 +891,7 @@
         <v>0.01</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,7 +905,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>15</v>
+      </c>
+      <c r="B27" s="5">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
